--- a/結合テスト/結合テスト仕様書_57期.xlsx
+++ b/結合テスト/結合テスト仕様書_57期.xlsx
@@ -5,27 +5,29 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C2123-239C-420C-BF6D-5E9DF7592B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC4A97-6D55-49AE-94D2-41FFF4153043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="166" r:id="rId1"/>
-    <sheet name="エビデンス（ログイン）" sheetId="171" r:id="rId2"/>
-    <sheet name="エビデンス（メニュー）" sheetId="172" r:id="rId3"/>
-    <sheet name="エビデンス（ログアウト）" sheetId="173" r:id="rId4"/>
-    <sheet name="エビデンス(パスワード再設定)" sheetId="174" r:id="rId5"/>
-    <sheet name="サンプル" sheetId="167" r:id="rId6"/>
-    <sheet name="テストケースに記載する要素" sheetId="170" r:id="rId7"/>
-    <sheet name="テスト用語" sheetId="169" r:id="rId8"/>
-    <sheet name="テスト観点一覧" sheetId="168" r:id="rId9"/>
+    <sheet name="エビデンス（編集）" sheetId="176" r:id="rId2"/>
+    <sheet name="エビデンス（登録）" sheetId="175" r:id="rId3"/>
+    <sheet name="エビデンス（ログイン）" sheetId="171" r:id="rId4"/>
+    <sheet name="エビデンス（メニュー）" sheetId="172" r:id="rId5"/>
+    <sheet name="エビデンス（ログアウト）" sheetId="173" r:id="rId6"/>
+    <sheet name="エビデンス(パスワード再設定)" sheetId="174" r:id="rId7"/>
+    <sheet name="サンプル" sheetId="167" r:id="rId8"/>
+    <sheet name="テストケースに記載する要素" sheetId="170" r:id="rId9"/>
+    <sheet name="テスト用語" sheetId="169" r:id="rId10"/>
+    <sheet name="テスト観点一覧" sheetId="168" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">テスト観点一覧!$1:$2</definedName>
-    <definedName name="範囲１" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">テスト観点一覧!$1:$2</definedName>
+    <definedName name="範囲１" localSheetId="7">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="364">
   <si>
     <t>作成者</t>
   </si>
@@ -56,28 +58,28 @@
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>サブシステム名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実施者</t>
@@ -87,11 +89,11 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>検証内容</t>
@@ -101,14 +103,14 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考・特記事項</t>
@@ -121,14 +123,14 @@
     <rPh sb="5" eb="7">
       <t>ジコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>期待する結果</t>
@@ -138,11 +140,11 @@
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>コンサイズ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>単体テスト仕様書</t>
@@ -152,18 +154,18 @@
     <rPh sb="5" eb="8">
       <t>シヨウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>小林</t>
     <rPh sb="0" eb="2">
       <t>コバヤシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示する</t>
@@ -173,7 +175,7 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・ログイン画面が正しく表示されること</t>
@@ -186,22 +188,22 @@
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザID：admin</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード：pass</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「ログイン」ボタンを押下する</t>
     <rPh sb="10" eb="12">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・メニュー画面へ遷移すること</t>
@@ -211,14 +213,14 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・エラーメッセージが表示されること</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メッセージ内容
@@ -229,14 +231,14 @@
     <rPh sb="12" eb="14">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>試験・確認項目</t>
@@ -249,7 +251,7 @@
     <rPh sb="5" eb="7">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>試験・確認内容</t>
@@ -262,11 +264,11 @@
     <rPh sb="5" eb="7">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>データ入力のエラー検出手法</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1. フォーマットチェック</t>
@@ -288,52 +290,52 @@
   </si>
   <si>
     <t>妥当性チェックを行うことで、データの正確性を高め、より信頼性のある情報を得ることができます。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>妥当性チェックとは、データ入力の際に生じるエラーを検出する手法の一つです。データ入力作業では、タイプミスや誤った情報の入力など、多くのエラーが発生するため、正確な情報を得るためには必要不可欠な作業となります。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>妥当性チェックとは</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>フォーマットチェックは、データが指定された形式やフォーマットに従っているかどうかを確認します。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>たとえば、電子メールアドレスが "example@example.com" のような形式になっているかどうか、または日付が "YYYY-MM-DD" の形式になっているかどうかを確認することが含まれます。</t>
   </si>
   <si>
     <t>範囲チェックは、データが許容される範囲内にあるかどうかを確認します。たとえば、年齢が18歳以上であるかどうか、または数値が特定の範囲内に収まっているかどうかを確認することが含まれます。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>存在チェックは、データが存在するかどうかを確認します。たとえば、必須フィールドが空でないかどうか、またはデータベースにユーザが存在するかどうかを確認することが含まれます。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>データの類似性をチェックし、不適切な入力がないかを確認する方法です。例えば、名前や住所が重複していないかどうか、または入力された値が過去に入力されたデータと比較して異なっていないかどうかを確認することが含まれます。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザIDとパスワードの最大文字数を入力する</t>
     <rPh sb="18" eb="20">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザIDを入力する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワードを入力する</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザIDとパスワードを未入力状態にする</t>
@@ -343,21 +345,21 @@
     <rPh sb="15" eb="17">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザIDとパスワードを入力する</t>
     <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>商品管理システム</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンカンリ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面上で必須チェックが動作することを確認する</t>
@@ -373,7 +375,7 @@
     <rPh sb="18" eb="20">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「取消」ボタンを押下する</t>
@@ -383,7 +385,7 @@
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「取消」ボタンが正しく動作することを確認する</t>
@@ -402,15 +404,15 @@
     <rPh sb="18" eb="20">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト観点とは</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>入力観点</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>未入力</t>
@@ -582,7 +584,7 @@
   </si>
   <si>
     <t>0を設定した場合に期待通りの動作をするか</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「&lt;」「&gt;」「&amp;」「"」「'」を１文字ずつテストする</t>
@@ -769,7 +771,7 @@
   </si>
   <si>
     <t>機能観点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>件数指定</t>
@@ -1025,7 +1027,7 @@
     <rPh sb="26" eb="28">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>その他観点</t>
@@ -1113,7 +1115,7 @@
     <rPh sb="82" eb="84">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト観点一覧</t>
@@ -1123,11 +1125,11 @@
     <rPh sb="5" eb="7">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面観点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面観点</t>
@@ -1137,11 +1139,11 @@
     <rPh sb="2" eb="4">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>入力観点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>機能観点</t>
@@ -1151,26 +1153,26 @@
     <rPh sb="2" eb="4">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>初期表示</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>初期表示が仕様どおりか</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>初期表示が仕様どおりか確認する</t>
     <rPh sb="11" eb="13">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>仕様書に記述された検索条件で対象データが取得できていることを確認</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>対象データでログインできることを確認する</t>
@@ -1180,15 +1182,15 @@
     <rPh sb="16" eb="18">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>最大長データで各機能を実行し正常に処理されることを確認</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>最大長データで正常にログインされることを確認する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>入力観点</t>
@@ -1198,18 +1200,18 @@
     <rPh sb="2" eb="4">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・入力値が全てリセットされること</t>
     <rPh sb="5" eb="6">
       <t>スベ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>※5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>データベースに存在しないユーザのユーザIDとパスワードを入力する</t>
@@ -1219,14 +1221,14 @@
     <rPh sb="28" eb="30">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト手順</t>
     <rPh sb="3" eb="5">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・ログイン失敗画面へ遷移すること</t>
@@ -1239,7 +1241,7 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインが失敗することを確認する</t>
@@ -1249,43 +1251,43 @@
     <rPh sb="12" eb="14">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザIDとパスワードの最大文字数を超えた値を入力する</t>
     <rPh sb="21" eb="22">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインが失敗することを確認する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・ログイン失敗画面へ遷移すること</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>検証内容</t>
     <rPh sb="0" eb="4">
       <t>ケンショウナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考・特記事項</t>
@@ -1295,26 +1297,26 @@
     <rPh sb="3" eb="7">
       <t>トッキジコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テストケース番号</t>
     <rPh sb="6" eb="8">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テストで確認すべき結果が出力されるまでの作業手順</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>そのテストで確認したいこと</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>どのような結果になっていれば合格か、期待される結果</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト実施日(テスト実施者が記入)</t>
@@ -1327,7 +1329,7 @@
     <rPh sb="14" eb="16">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト観点の分類</t>
@@ -1337,14 +1339,14 @@
     <rPh sb="6" eb="8">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>登録画面</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>結合テスト仕様書兼報告書</t>
@@ -1360,14 +1362,14 @@
     <rPh sb="9" eb="12">
       <t>ホウコクショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインに成功</t>
     <rPh sb="5" eb="7">
       <t>セイコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザーIDの入力欄に「hoge」、パスワード入力欄に「piyo」と入力し、ログインボタンを押下する</t>
@@ -1392,18 +1394,18 @@
     <rPh sb="58" eb="60">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインに失敗する</t>
     <rPh sb="5" eb="7">
       <t>シッパイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインに成功してメニュー画面に遷移すること</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>確認内容</t>
@@ -1413,7 +1415,7 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実施結果</t>
@@ -1423,16 +1425,16 @@
     <rPh sb="2" eb="4">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインに失敗し、ログイン失敗画面に遷移すること</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に
 「piyo」と入力し、ログインボタンを押下する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>小項目</t>
@@ -1442,12 +1444,12 @@
     <rPh sb="1" eb="3">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に
 「b」と入力し、ログインボタンを押下する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「このフィールドを入力してください」というエラーメッセ
@@ -1458,14 +1460,14 @@
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザID入力欄とパスワード入力欄どちらかが未入力でログインボタンを押下する</t>
     <rPh sb="34" eb="37">
       <t>ミニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メニュー画面を表示する</t>
@@ -1475,11 +1477,11 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メニュー画面では、ログインしているユーザー名と、タスク登録ボタン・タスク一覧ボタン・ログアウトボタンが表示される</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メニュー画面が正しく表示されている</t>
@@ -1492,52 +1494,52 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログアウトする</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メニュー画面を表示して、ログアウトボタンを押下する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログアウト画面が表示され、タスク管理システムから
 ログアウトすること</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザIDの入力欄に「hoge」、パスワード入力欄に「a」と入力し、ログインボタンを押下する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザーIDの入力欄に「hoge」、パスワード入力欄に「piyo」と入力し、ログインボタンを押下する</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に
 「b」と入力し、ログインボタンを押下する</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ログイン画面を表示して、ユーザID入力欄とパスワード入力欄どちらかが未入力でログインボタンを押下する</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>メニュー画面では、ログインしているユーザー名と、タスク登録ボタン・タスク一覧ボタン・ログアウトボタンが表示される</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>メニュー画面を表示して、ログアウトボタンを押下する</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>パスワード再設定に成功する</t>
@@ -1547,7 +1549,7 @@
     <rPh sb="9" eb="11">
       <t>セイコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザーIDの入力欄に「hoge」、ユーザー名の入力欄に「hogehoge」と入力し、新しいパスワードを入力する。</t>
@@ -1581,7 +1583,7 @@
     <rPh sb="66" eb="68">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再設定完了画面に遷移すること</t>
@@ -1597,7 +1599,7 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再設定に失敗する</t>
@@ -1607,7 +1609,7 @@
     <rPh sb="9" eb="11">
       <t>シッパイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザーIDの入力欄に「hoge」、ユーザー名の入力欄に「a」と入力し、新しいパスワードを入力する。</t>
@@ -1641,7 +1643,7 @@
     <rPh sb="59" eb="61">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再設定失敗画面に遷移すること</t>
@@ -1657,7 +1659,7 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザーIDの入力欄に「a」、ユーザー名の入力欄に「hogehoge」と入力し、新しいパスワードを入力する。</t>
@@ -1691,7 +1693,7 @@
     <rPh sb="63" eb="65">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザID入力欄とユーザー名入力欄と、新しいパスワードいづれかが未入力でログインボタンを押下する</t>
@@ -1701,23 +1703,282 @@
     <rPh sb="46" eb="49">
       <t>ミニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザーIDの入力欄に「hoge」、ユーザー名の入力欄に「hogehoge」と入力し、新しいパスワードを入力する。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザーIDの入力欄に「hoge」、ユーザー名の入力欄に「a」と入力し、新しいパスワードを入力する。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザーIDの入力欄に「a」、ユーザー名の入力欄に「hogehoge」と入力し、新しいパスワードを入力する。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ログイン失敗画面を表示して、ユーザID入力欄とユーザー名入力欄と、新しいパスワードいづれかが未入力でログインボタンを押下する</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タスク一覧を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メニュー画面でタスク一覧表示ボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクの一覧が表形式で表示されること
+登録されているタスクが0件の場合は「タスクは未登録です」と表示されること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクを登録する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メニュー画面でタスク登録ボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録画面が表示されること</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録成功画面に遷移すること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録に失敗する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク名が未入力のまま登録ボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「このフィールドを入力してください。」と注意喚起が表示されること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録画面で、タスク名「タスク１」・カテゴリ名「新商品A：開発プロジェクト」・期限「2025/8/28」・ユーザ名「hoge」・ステータス情報「未着手」・メモ「タスク１メモテスト」と入力して登録ボタンを押下する</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリ名が未選択のまま登録ボタンを押下する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「リスト内の項目を選択して下してください」と注意喚起が表示されること</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録画面で、タスク名「タスク１」・カテゴリ名「新商品A：開発プロジェクト」・期限「2025/8/28」・ユーザ名「hogehoge」・ステータス情報「未着手」・メモ「タスク１メモテスト」と入力して登録ボタンを押下する</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録画面で、タスク名「タスク2」・カテゴリ名「新商品A
+：開発プロジェクト」・期限「2025/8/28」・ユーザ名「hogehoge」・ステータス情報「未着手」・メモ(未入力)と入力して登録ボタンを押下する</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク登録画面で、タスク名「タスク2」・カテゴリ名「新商品A：開発プロジェクト」・期限「2025/8/28」・ユーザ名「hogehoge」・ステータス情報「未着手」・メモ(未入力)と入力して登録ボタンを押下する</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリアボタンを押下した後、期限を未選択のまま登録ボタンを押下する</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリアボタンを押下した後、期限を未選択のまま登録ボタンを押下
+する</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクを編集する</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク一覧画面の編集ボタンをクリックする</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク編集画面が表示されること</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク変更完了画面に遷移する</t>
+    <rPh sb="3" eb="9">
+      <t>ヘンコウカンリョウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク名「タスク５」・カテゴリー名「既存商品B：改良プロジェクト」・期限「2025/8/31」・担当者「hogehoge」・ステータス名「着手」・メモ「タスク編集テスト」と編集して変更するボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク編集に失敗する</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク名を未入力にして変更する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1727,12 +1988,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1857,6 +2126,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1878,7 +2154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2097,232 +2373,275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2330,16 +2649,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="3" xr:uid="{19573B29-3BF9-4DF6-9B9D-E514C79C5A6C}"/>
+    <cellStyle name="標準 2 2" xfId="8" xr:uid="{7FCF1585-D207-49E1-A9C1-00CE5315F221}"/>
+    <cellStyle name="標準 3" xfId="9" xr:uid="{AD078B74-2A53-4514-AF2E-EEE6AFAC6D3C}"/>
+    <cellStyle name="標準 4" xfId="7" xr:uid="{0D1AB8CE-0487-4E2D-9D31-EF951B96C5DC}"/>
     <cellStyle name="標準_Sheet1" xfId="5" xr:uid="{EB729BB5-1D32-4ECE-AFD8-902634A87734}"/>
     <cellStyle name="標準_システム管理" xfId="4" xr:uid="{B806E468-4DAA-499E-886E-C84F081F4F23}"/>
     <cellStyle name="標準_種別マスタ" xfId="6" xr:uid="{051C0422-A085-4DD4-95B0-9AB38B5F6DA2}"/>
@@ -2428,6 +2798,440 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDF501D-7E82-8E79-A696-E4C94C57A79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="38100"/>
+          <a:ext cx="7772400" cy="3761866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274806</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB15784-E06E-5D37-3E7A-32326FA5A26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10824" y="1020280"/>
+          <a:ext cx="6401113" cy="3482443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649432</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>665678</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727BB30C-CDD7-E679-0849-B3016AC075AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6786563" y="1039090"/>
+          <a:ext cx="10926700" cy="2152950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623268</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>108239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDB03DE-CD52-291C-99B5-5B0CC1E4D427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="5769121"/>
+          <a:ext cx="6760398" cy="3745056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313892</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108238</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>140710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB9FD6E-33D6-5CB4-F300-E1928ABAECCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5769119" y="9243580"/>
+          <a:ext cx="476250" cy="303068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>34283</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40C8E31-B9E5-AEF2-6DCA-1EFF507E4870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534382" y="5704298"/>
+          <a:ext cx="10993384" cy="1952898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>21401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101893</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>21401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBB183D-991C-BE41-3E60-430D677F86A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10648732"/>
+          <a:ext cx="6266387" cy="3424719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>21405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>106671</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>21405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96516B4E-4AE6-AF0A-9B08-47034D451A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6849438" y="10648736"/>
+          <a:ext cx="6271166" cy="3424719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>21401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>119807</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>21401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FD1990-6AA2-8E48-EDDF-46E7B1AE5697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13698876" y="10648732"/>
+          <a:ext cx="6284302" cy="3424719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2982,7 +3786,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3097,7 +3901,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3212,7 +4016,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3922,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="95" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3931,8 +4735,9 @@
     <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="8" customWidth="1"/>
     <col min="3" max="7" width="7.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="8" customWidth="1"/>
-    <col min="9" max="14" width="7.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17" style="8" customWidth="1"/>
+    <col min="9" max="13" width="7.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="4" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="4" customWidth="1"/>
     <col min="16" max="16" width="8.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="10.625" style="4" hidden="1" customWidth="1"/>
@@ -3941,66 +4746,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="34"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="55"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
       <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="55"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
       <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -4034,33 +4839,33 @@
       <c r="C4" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="40" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="40" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
       <c r="R4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="42"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1">
       <c r="A5" s="9">
@@ -4072,163 +4877,163 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="47" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="59">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="53">
         <v>45897</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="57"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
       <c r="R5" s="9" t="s">
         <v>320</v>
       </c>
       <c r="S5" s="56"/>
-      <c r="T5" s="57"/>
+      <c r="T5" s="55"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="86">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="86" t="s">
         <v>304</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="59">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="53">
         <v>45897</v>
       </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="57"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
       <c r="R6" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="47" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="59">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="53">
         <v>45897</v>
       </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="57"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
       <c r="R7" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47" t="s">
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="59">
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="53">
         <v>45897</v>
       </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="57"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
       <c r="R8" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="48" t="s">
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="59">
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="53">
         <v>45897</v>
       </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="57"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1">
       <c r="A10" s="9">
@@ -4240,31 +5045,31 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="59">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="53">
         <v>45897</v>
       </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="57"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
       <c r="R10" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1">
       <c r="A11" s="9">
@@ -4276,31 +5081,31 @@
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="48" t="s">
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="59">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="53">
         <v>45897</v>
       </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="57"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1">
       <c r="A12" s="9">
@@ -4312,949 +5117,1253 @@
       <c r="C12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="48" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="59">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="53">
         <v>45897</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="57"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="86">
+        <v>6</v>
+      </c>
+      <c r="B13" s="86" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="48" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="59">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="53">
         <v>45897</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="57"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
       <c r="R13" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="48" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="59">
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="53">
         <v>45897</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="57"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
       <c r="R14" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="48" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="59">
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="53">
         <v>45897</v>
       </c>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="57"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
       <c r="R15" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="33">
+        <v>12</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-    </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-    </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
+      <c r="A17" s="86">
+        <v>8</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="33">
+        <v>13</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+    </row>
+    <row r="18" spans="1:20" ht="71.25" customHeight="1">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="33">
+        <v>14</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+    </row>
+    <row r="19" spans="1:20" ht="72.75" customHeight="1">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="33">
+        <v>15</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
+      <c r="A20" s="86">
+        <v>9</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" s="89">
+        <v>16</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-    </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-    </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="63"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="10">
+        <v>17</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="33">
+        <v>18</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="1:20" ht="33" customHeight="1">
+      <c r="A23" s="86">
+        <v>10</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="33">
+        <v>19</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-    </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="63"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+    </row>
+    <row r="24" spans="1:20" ht="67.5" customHeight="1">
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="33">
+        <v>20</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
     </row>
     <row r="25" spans="1:20" ht="30" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
+      <c r="A25" s="91">
+        <v>11</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="33">
+        <v>21</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="53">
+        <v>45897</v>
+      </c>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
     </row>
     <row r="26" spans="1:20" ht="30" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
     </row>
     <row r="27" spans="1:20" ht="30" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="30" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-    </row>
-    <row r="29" spans="1:20" ht="30" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="48"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
     </row>
     <row r="31" spans="1:20" ht="30" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
     </row>
     <row r="32" spans="1:20" ht="30" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="12"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="48"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="48"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="12"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="48"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="48"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="12"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="12"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="48"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="12"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="12"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="48"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="12"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="12"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="68"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="42"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="58"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="12"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="68"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="42"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="68"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="42"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="68"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="42"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="68"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="42"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
     </row>
     <row r="49" spans="1:20" ht="30" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="68"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="42"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
     </row>
     <row r="50" spans="1:20" ht="30" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="68"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="42"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
     </row>
     <row r="51" spans="1:20" ht="30" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="68"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="42"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
     </row>
     <row r="52" spans="1:20" ht="30" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="68"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="42"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
     </row>
     <row r="53" spans="1:20" ht="11.25" customHeight="1">
       <c r="C53" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="214">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="O47:Q47"/>
@@ -5279,1993 +6388,15 @@
     <mergeCell ref="O30:Q30"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE63D64-008A-4D20-A460-8F9B7E42EBC8}">
-  <dimension ref="A1:H123"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="82">
-        <v>1</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="82">
-        <v>2</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="82">
-        <v>3</v>
-      </c>
-      <c r="B60" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="82"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="84">
-        <v>4</v>
-      </c>
-      <c r="B91" s="85" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="84"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="84">
-        <v>5</v>
-      </c>
-      <c r="B122" s="85" t="s">
-        <v>324</v>
-      </c>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="84"/>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:H92"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:H61"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC394B04-E4AF-4872-9333-4B323DE2F91F}">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="82">
-        <v>6</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="82">
-        <v>6</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:H32"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C51D099-4F8D-4F19-9DB3-C2645C9A4B33}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="82">
-        <v>7</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9E2C8B-1238-4CA9-84A2-AFC58038BDDE}">
-  <dimension ref="A1:H109"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="82">
-        <v>8</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="82">
-        <v>9</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="82">
-        <v>10</v>
-      </c>
-      <c r="B72" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="82"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="82">
-        <v>11</v>
-      </c>
-      <c r="B108" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="82"/>
-      <c r="B109" s="83"/>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:H109"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:H73"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0C5C7-8C43-41C7-B130-D2EA20EAD818}">
-  <dimension ref="A1:S46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39:P39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
-    <col min="3" max="6" width="7.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
-    <col min="8" max="13" width="7.125" style="4" customWidth="1"/>
-    <col min="14" max="19" width="10.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="7" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="55"/>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="69">
-        <v>44771</v>
-      </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="65"/>
-    </row>
-    <row r="3" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="73"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
-    </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-    </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="11">
-        <v>45607</v>
-      </c>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-    </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-    </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-    </row>
-    <row r="18" spans="1:19" ht="30" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-    </row>
-    <row r="19" spans="1:19" ht="30" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-    </row>
-    <row r="20" spans="1:19" ht="30" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-    </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-    </row>
-    <row r="22" spans="1:19" ht="30" customHeight="1">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-    </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-    </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-    </row>
-    <row r="26" spans="1:19" ht="30" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-    </row>
-    <row r="27" spans="1:19" ht="30" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-    </row>
-    <row r="28" spans="1:19" ht="30" customHeight="1">
-      <c r="A28" s="10">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-    </row>
-    <row r="29" spans="1:19" ht="30" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-    </row>
-    <row r="30" spans="1:19" ht="30" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-    </row>
-    <row r="31" spans="1:19" ht="30" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-    </row>
-    <row r="32" spans="1:19" ht="30" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-    </row>
-    <row r="33" spans="1:19" ht="30" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-    </row>
-    <row r="34" spans="1:19" ht="30" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-    </row>
-    <row r="35" spans="1:19" ht="30" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-    </row>
-    <row r="36" spans="1:19" ht="30" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-    </row>
-    <row r="37" spans="1:19" ht="30" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-    </row>
-    <row r="38" spans="1:19" ht="30" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" s="73"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-    </row>
-    <row r="39" spans="1:19" ht="30" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-    </row>
-    <row r="40" spans="1:19" ht="30" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-    </row>
-    <row r="41" spans="1:19" ht="30" customHeight="1">
-      <c r="A41" s="10">
-        <v>6</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-    </row>
-    <row r="42" spans="1:19" ht="30" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-    </row>
-    <row r="43" spans="1:19" ht="30" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-    </row>
-    <row r="44" spans="1:19" ht="30" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="58"/>
-    </row>
-    <row r="45" spans="1:19" ht="30" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="O45" s="73"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-    </row>
-    <row r="46" spans="1:19" ht="30" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01856DC-DDB1-4BCC-A81E-55BADDF18AD4}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
-  <cols>
-    <col min="1" max="1" width="19" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE8ECA2-2A3F-47A6-B4CF-9F5C2FFE66D5}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7362,12 +6493,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF0E54D-A4D9-44E3-B6EE-E42B843E9008}">
   <dimension ref="A1:FR148"/>
   <sheetViews>
@@ -7577,38 +6708,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
     </row>
     <row r="2" spans="1:174" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -12936,7 +12067,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:AD1"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12944,4 +12075,1947 @@
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B8CD50-8ACF-47AA-8125-93BA364C9A5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C8C350-A1AC-49AC-9F6B-5CB806E1B036}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="67.5" customHeight="1">
+      <c r="A1" s="33">
+        <v>14</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="24" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A24" s="33">
+        <v>15</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="89">
+        <v>16</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="10">
+        <v>17</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+    </row>
+    <row r="52" spans="1:12" ht="37.5" customHeight="1">
+      <c r="A52" s="33">
+        <v>18</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE63D64-008A-4D20-A460-8F9B7E42EBC8}">
+  <dimension ref="A1:H123"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="73">
+        <v>1</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="73">
+        <v>2</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="73">
+        <v>3</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="73"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="71">
+        <v>4</v>
+      </c>
+      <c r="B91" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="71"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="71">
+        <v>5</v>
+      </c>
+      <c r="B122" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="71"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:H92"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:H31"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:H61"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC394B04-E4AF-4872-9333-4B323DE2F91F}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="73">
+        <v>6</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="73">
+        <v>6</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:H32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C51D099-4F8D-4F19-9DB3-C2645C9A4B33}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="73">
+        <v>7</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9E2C8B-1238-4CA9-84A2-AFC58038BDDE}">
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="73">
+        <v>8</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="73">
+        <v>9</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="73">
+        <v>10</v>
+      </c>
+      <c r="B72" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="73"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="73">
+        <v>11</v>
+      </c>
+      <c r="B108" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="73"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:H109"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:H73"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0C5C7-8C43-41C7-B130-D2EA20EAD818}">
+  <dimension ref="A1:S46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39:P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
+    <col min="3" max="6" width="7.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
+    <col min="8" max="13" width="7.125" style="4" customWidth="1"/>
+    <col min="14" max="19" width="10.625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="7" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="37"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="44">
+        <v>44771</v>
+      </c>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="78"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="84"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="11">
+        <v>45607</v>
+      </c>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="O20" s="78"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" s="78"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="78"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="78"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" customHeight="1">
+      <c r="A41" s="10">
+        <v>6</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" s="78"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="181">
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01856DC-DDB1-4BCC-A81E-55BADDF18AD4}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/結合テスト/結合テスト仕様書_57期.xlsx
+++ b/結合テスト/結合テスト仕様書_57期.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC4A97-6D55-49AE-94D2-41FFF4153043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93EBBE0-E2B5-4D62-97EF-8E0651960644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="166" r:id="rId1"/>
-    <sheet name="エビデンス（編集）" sheetId="176" r:id="rId2"/>
-    <sheet name="エビデンス（登録）" sheetId="175" r:id="rId3"/>
-    <sheet name="エビデンス（ログイン）" sheetId="171" r:id="rId4"/>
-    <sheet name="エビデンス（メニュー）" sheetId="172" r:id="rId5"/>
-    <sheet name="エビデンス（ログアウト）" sheetId="173" r:id="rId6"/>
-    <sheet name="エビデンス(パスワード再設定)" sheetId="174" r:id="rId7"/>
-    <sheet name="サンプル" sheetId="167" r:id="rId8"/>
-    <sheet name="テストケースに記載する要素" sheetId="170" r:id="rId9"/>
-    <sheet name="テスト用語" sheetId="169" r:id="rId10"/>
-    <sheet name="テスト観点一覧" sheetId="168" r:id="rId11"/>
+    <sheet name="エビデンス（コメント）" sheetId="178" r:id="rId2"/>
+    <sheet name="エビデンス（編集）" sheetId="176" r:id="rId3"/>
+    <sheet name="エビデンス（登録）" sheetId="175" r:id="rId4"/>
+    <sheet name="エビデンス（削除）" sheetId="177" r:id="rId5"/>
+    <sheet name="エビデンス（ログイン）" sheetId="171" r:id="rId6"/>
+    <sheet name="エビデンス（メニュー）" sheetId="172" r:id="rId7"/>
+    <sheet name="エビデンス（ログアウト）" sheetId="173" r:id="rId8"/>
+    <sheet name="エビデンス(パスワード再設定)" sheetId="174" r:id="rId9"/>
+    <sheet name="サンプル" sheetId="167" r:id="rId10"/>
+    <sheet name="テストケースに記載する要素" sheetId="170" r:id="rId11"/>
+    <sheet name="テスト用語" sheetId="169" r:id="rId12"/>
+    <sheet name="テスト観点一覧" sheetId="168" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">テスト観点一覧!$1:$2</definedName>
-    <definedName name="範囲１" localSheetId="7">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">テスト観点一覧!$1:$2</definedName>
+    <definedName name="範囲１" localSheetId="9">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="382">
   <si>
     <t>作成者</t>
   </si>
@@ -1978,6 +1980,126 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク一覧の画面で「タスク1」の削除ボタンを押下し、
+タスク削除確認画面から「削除する」ボタンを押下する。</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除完了画面が表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク削除に失敗する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク一覧の画面で「タスク1」の削除ボタンを押下し、
+タスク削除確認画面から「削除する」ボタンを押下する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク削除エラー画面が表示されること</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク削除を完了する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを投稿する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク一覧画面で「タスク2」のコメントボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「タスク2」のコメント画面に遷移すること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント画面でコメントを書き込むボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規コメント書き込み画面に遷移すること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「テストコメント」と入力し、送信ボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント画面に入力内容が反映されること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを削除する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント削除確認画面に遷移すること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント削除確認画面の削除ボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント画面から「テストコメント」が削除されること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント画面でログインユーザ(hoge)が投稿したコメント「テストコ
+メント」の削除ボタンを押下する</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2154,7 +2276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2438,6 +2560,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2453,7 +2605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2532,11 +2684,122 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2553,88 +2816,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2649,20 +2843,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2673,35 +2858,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3232,6 +3393,187 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340504C2-50BC-9C3E-9A71-9805566EEBD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="948748"/>
+          <a:ext cx="6362700" cy="1890174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D2C68E-7F84-655C-C2B7-46E954ED3798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19052" y="3091826"/>
+          <a:ext cx="6191248" cy="2976362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>96029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AFF238-CCC5-2988-51DC-18F84189FFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19051" y="6236969"/>
+          <a:ext cx="6581774" cy="3336435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>18178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F416DEA8-1444-CE24-564D-DA38C8125489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="11257678"/>
+          <a:ext cx="7991475" cy="2496919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3786,7 +4128,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3901,7 +4243,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4016,7 +4358,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4726,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="95" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:H28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -4746,66 +5088,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="34"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="37"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="37"/>
+      <c r="T1" s="66"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="37"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81"/>
       <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -4839,33 +5181,33 @@
       <c r="C4" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="50" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="50" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
       <c r="R4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="52"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1">
       <c r="A5" s="9">
@@ -4877,163 +5219,163 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="43" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="53">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="70">
         <v>45897</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="68"/>
       <c r="R5" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S5" s="56"/>
-      <c r="T5" s="55"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1">
-      <c r="A6" s="86">
+      <c r="A6" s="40">
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="40" t="s">
         <v>304</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="43" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="53">
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="70">
         <v>45897</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="68"/>
       <c r="R6" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="43" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="53">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="70">
         <v>45897</v>
       </c>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="68"/>
       <c r="R7" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="43" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="53">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="70">
         <v>45897</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="68"/>
       <c r="R8" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="62" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="53">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="70">
         <v>45897</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="68"/>
       <c r="R9" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1">
       <c r="A10" s="9">
@@ -5045,31 +5387,31 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="43" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="53">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="70">
         <v>45897</v>
       </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="68"/>
       <c r="R10" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1">
       <c r="A11" s="9">
@@ -5081,31 +5423,31 @@
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="62" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="53">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="70">
         <v>45897</v>
       </c>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="68"/>
       <c r="R11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1">
       <c r="A12" s="9">
@@ -5117,131 +5459,131 @@
       <c r="C12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="62" t="s">
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="53">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="70">
         <v>45897</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="68"/>
       <c r="R12" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1">
-      <c r="A13" s="86">
+      <c r="A13" s="40">
         <v>6</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="40" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="62" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="53">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="70">
         <v>45897</v>
       </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="68"/>
       <c r="R13" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="62" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="53">
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="70">
         <v>45897</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="68"/>
       <c r="R14" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="62" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="53">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="70">
         <v>45897</v>
       </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="68"/>
       <c r="R15" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1">
       <c r="A16" s="9">
@@ -5253,937 +5595,1205 @@
       <c r="C16" s="33">
         <v>12</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="62" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="53">
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="70">
         <v>45897</v>
       </c>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="68"/>
       <c r="R16" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1">
-      <c r="A17" s="86">
+      <c r="A17" s="40">
         <v>8</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="40" t="s">
         <v>342</v>
       </c>
       <c r="C17" s="33">
         <v>13</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="43" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="53">
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="70">
         <v>45897</v>
       </c>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="68"/>
       <c r="R17" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
     </row>
     <row r="18" spans="1:20" ht="71.25" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="33">
         <v>14</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="43" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="53">
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="70">
         <v>45897</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="68"/>
       <c r="R18" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
     </row>
     <row r="19" spans="1:20" ht="72.75" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="33">
         <v>15</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="43" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="53">
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="70">
         <v>45897</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="68"/>
       <c r="R19" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1">
-      <c r="A20" s="86">
+      <c r="A20" s="40">
         <v>9</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20" s="36">
         <v>16</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="43" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="53">
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="70">
         <v>45897</v>
       </c>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="68"/>
       <c r="R20" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="10">
         <v>17</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="43" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="53">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="70">
         <v>45897</v>
       </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="68"/>
       <c r="R21" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
     </row>
     <row r="22" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="33">
         <v>18</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="43" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="53">
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="70">
         <v>45897</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
     </row>
     <row r="23" spans="1:20" ht="33" customHeight="1">
-      <c r="A23" s="86">
+      <c r="A23" s="40">
         <v>10</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="40" t="s">
         <v>357</v>
       </c>
       <c r="C23" s="33">
         <v>19</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="43" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="70">
+        <v>45897</v>
+      </c>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
     </row>
     <row r="24" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="33">
         <v>20</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="43" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="70">
+        <v>45897</v>
+      </c>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
     </row>
     <row r="25" spans="1:20" ht="30" customHeight="1">
-      <c r="A25" s="91">
+      <c r="A25" s="38">
         <v>11</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="38" t="s">
         <v>362</v>
       </c>
       <c r="C25" s="33">
         <v>21</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="43" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="53">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="70">
         <v>45897</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="68"/>
       <c r="R25" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-    </row>
-    <row r="26" spans="1:20" ht="30" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-    </row>
-    <row r="27" spans="1:20" ht="30" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+    </row>
+    <row r="26" spans="1:20" ht="51" customHeight="1">
+      <c r="A26" s="38">
+        <v>12</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="33">
+        <v>22</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="70">
+        <v>45897</v>
+      </c>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+    </row>
+    <row r="27" spans="1:20" ht="39.75" customHeight="1">
+      <c r="A27" s="38">
+        <v>13</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="33">
+        <v>23</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="70">
+        <v>45897</v>
+      </c>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
     </row>
     <row r="28" spans="1:20" ht="30" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
+      <c r="A28" s="40">
+        <v>14</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" s="33">
+        <v>24</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="70">
+        <v>45898</v>
+      </c>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
     </row>
     <row r="29" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="33">
+        <v>25</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="70">
+        <v>45898</v>
+      </c>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-    </row>
-    <row r="31" spans="1:20" ht="30" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="33">
+        <v>26</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="70">
+        <v>45898</v>
+      </c>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+    </row>
+    <row r="31" spans="1:20" ht="47.25" customHeight="1">
+      <c r="A31" s="40">
+        <v>15</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="33">
+        <v>27</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="70">
+        <v>45898</v>
+      </c>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="1:20" ht="30" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="33">
+        <v>28</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="70">
+        <v>45898</v>
+      </c>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="48"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="48"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="74"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="12"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="48"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="74"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="48"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="74"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="48"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="74"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="12"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="48"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="74"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="12"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="48"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="74"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="12"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="48"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="74"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="12"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="48"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="74"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="12"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="48"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="74"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="12"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="79"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="12"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="79"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="79"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="79"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="79"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
     </row>
     <row r="49" spans="1:20" ht="30" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="79"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
     </row>
     <row r="50" spans="1:20" ht="30" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="79"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
     </row>
     <row r="51" spans="1:20" ht="30" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="79"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
     </row>
     <row r="52" spans="1:20" ht="30" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="79"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
     </row>
     <row r="53" spans="1:20" ht="11.25" customHeight="1">
       <c r="C53" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
+  <mergeCells count="218">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
     <mergeCell ref="D52:H52"/>
     <mergeCell ref="I52:N52"/>
     <mergeCell ref="D4:H4"/>
@@ -6208,186 +6818,16 @@
     <mergeCell ref="I45:N45"/>
     <mergeCell ref="D44:H44"/>
     <mergeCell ref="D45:H45"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -6397,6 +6837,1415 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0C5C7-8C43-41C7-B130-D2EA20EAD818}">
+  <dimension ref="A1:S46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39:P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
+    <col min="3" max="6" width="7.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
+    <col min="8" max="13" width="7.125" style="4" customWidth="1"/>
+    <col min="14" max="19" width="10.625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="7" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="66"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="80">
+        <v>44771</v>
+      </c>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="76"/>
+    </row>
+    <row r="3" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="49"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="90"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="11">
+        <v>45607</v>
+      </c>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" s="56"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="56"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" customHeight="1">
+      <c r="A41" s="10">
+        <v>6</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" s="56"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="11">
+        <v>44771</v>
+      </c>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="181">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01856DC-DDB1-4BCC-A81E-55BADDF18AD4}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE8ECA2-2A3F-47A6-B4CF-9F5C2FFE66D5}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6498,7 +8347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF0E54D-A4D9-44E3-B6EE-E42B843E9008}">
   <dimension ref="A1:FR148"/>
   <sheetViews>
@@ -6708,38 +8557,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
     </row>
     <row r="2" spans="1:174" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -12078,10 +13927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01349041-33B7-49BE-94D8-CEEA2434E15B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B8CD50-8ACF-47AA-8125-93BA364C9A5F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -12093,12 +13955,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C8C350-A1AC-49AC-9F6B-5CB806E1B036}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:F52"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12107,102 +13969,102 @@
       <c r="A1" s="33">
         <v>14</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="43" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="24" spans="1:12" ht="71.25" customHeight="1">
       <c r="A24" s="33">
         <v>15</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="43" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="89">
+      <c r="A50" s="36">
         <v>16</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="43" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="10">
         <v>17</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="43" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
     </row>
     <row r="52" spans="1:12" ht="37.5" customHeight="1">
       <c r="A52" s="33">
         <v>18</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="43" t="s">
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12223,135 +14085,207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB2637-9C7A-4C76-A7D6-8B5C80CCFDDC}">
+  <dimension ref="A1:M58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="57.75" customHeight="1">
+      <c r="A1" s="39">
+        <v>12</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+    </row>
+    <row r="58" spans="1:13" ht="57.75" customHeight="1">
+      <c r="A58" s="39">
+        <v>13</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:M58"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE63D64-008A-4D20-A460-8F9B7E42EBC8}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="73">
+      <c r="A1" s="87">
         <v>1</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="73">
+      <c r="A30" s="87">
         <v>2</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="73">
+      <c r="A60" s="87">
         <v>3</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="73"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="71">
+      <c r="A91" s="85">
         <v>4</v>
       </c>
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="71"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="71">
+      <c r="A122" s="85">
         <v>5</v>
       </c>
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="86" t="s">
         <v>324</v>
       </c>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="H122" s="86"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="71"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
+      <c r="A123" s="85"/>
+      <c r="B123" s="86"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12372,7 +14306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC394B04-E4AF-4872-9333-4B323DE2F91F}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -12383,52 +14317,52 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="73">
+      <c r="A1" s="87">
         <v>6</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="73">
+      <c r="A31" s="87">
         <v>6</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12443,7 +14377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C51D099-4F8D-4F19-9DB3-C2645C9A4B33}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -12454,28 +14388,28 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="73">
+      <c r="A1" s="87">
         <v>7</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12488,7 +14422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9E2C8B-1238-4CA9-84A2-AFC58038BDDE}">
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -12499,100 +14433,100 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="73">
+      <c r="A1" s="87">
         <v>8</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="73">
+      <c r="A37" s="87">
         <v>9</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="73">
+      <c r="A72" s="87">
         <v>10</v>
       </c>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="73"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="73">
+      <c r="A108" s="87">
         <v>11</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
+      <c r="H108" s="88"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="73"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12609,1413 +14543,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0C5C7-8C43-41C7-B130-D2EA20EAD818}">
-  <dimension ref="A1:S46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39:P39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
-    <col min="3" max="6" width="7.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
-    <col min="8" max="13" width="7.125" style="4" customWidth="1"/>
-    <col min="14" max="19" width="10.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="7" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="37"/>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="44">
-        <v>44771</v>
-      </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="55"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84"/>
-    </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-    </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="84"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="11">
-        <v>45607</v>
-      </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-    </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-    </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-    </row>
-    <row r="18" spans="1:19" ht="30" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="76" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-    </row>
-    <row r="19" spans="1:19" ht="30" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-    </row>
-    <row r="20" spans="1:19" ht="30" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="O20" s="78"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-    </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-    </row>
-    <row r="22" spans="1:19" ht="30" customHeight="1">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-    </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-    </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-    </row>
-    <row r="26" spans="1:19" ht="30" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="78"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-    </row>
-    <row r="27" spans="1:19" ht="30" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-    </row>
-    <row r="28" spans="1:19" ht="30" customHeight="1">
-      <c r="A28" s="10">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-    </row>
-    <row r="29" spans="1:19" ht="30" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-    </row>
-    <row r="30" spans="1:19" ht="30" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-    </row>
-    <row r="31" spans="1:19" ht="30" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-    </row>
-    <row r="32" spans="1:19" ht="30" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="O32" s="78"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-    </row>
-    <row r="33" spans="1:19" ht="30" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-    </row>
-    <row r="34" spans="1:19" ht="30" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-    </row>
-    <row r="35" spans="1:19" ht="30" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-    </row>
-    <row r="36" spans="1:19" ht="30" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-    </row>
-    <row r="37" spans="1:19" ht="30" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-    </row>
-    <row r="38" spans="1:19" ht="30" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" s="78"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-    </row>
-    <row r="39" spans="1:19" ht="30" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="O39" s="78"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-    </row>
-    <row r="40" spans="1:19" ht="30" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-    </row>
-    <row r="41" spans="1:19" ht="30" customHeight="1">
-      <c r="A41" s="10">
-        <v>6</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-    </row>
-    <row r="42" spans="1:19" ht="30" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-    </row>
-    <row r="43" spans="1:19" ht="30" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-    </row>
-    <row r="44" spans="1:19" ht="30" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-    </row>
-    <row r="45" spans="1:19" ht="30" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="O45" s="78"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="11">
-        <v>44771</v>
-      </c>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-    </row>
-    <row r="46" spans="1:19" ht="30" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01856DC-DDB1-4BCC-A81E-55BADDF18AD4}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
-  <cols>
-    <col min="1" max="1" width="19" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/結合テスト/結合テスト仕様書_57期.xlsx
+++ b/結合テスト/結合テスト仕様書_57期.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93EBBE0-E2B5-4D62-97EF-8E0651960644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAE32E-EB43-402B-AF80-2A4F3BBED750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="166" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="383">
   <si>
     <t>作成者</t>
   </si>
@@ -2100,6 +2100,10 @@
   <si>
     <t>コメント画面でログインユーザ(hoge)が投稿したコメント「テストコ
 メント」の削除ボタンを押下する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント画面でログインユーザ(hoge)が投稿したコメント「テストコメント」の削除ボタンを押下する</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2699,107 +2703,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2816,11 +2730,101 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2843,10 +2847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2858,7 +2859,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2963,6 +2967,448 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA485641-DFD3-58EB-47AF-88385D9FD531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="371475"/>
+          <a:ext cx="5305425" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480CC8A0-9193-0D1C-698B-DE4BA2A9B96F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5486400" y="371475"/>
+          <a:ext cx="5438775" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA12CFE9-C1A2-EAEE-C226-282F9872BD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3848100"/>
+          <a:ext cx="5448300" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40BCDC5-A31F-7D0A-8536-917313270C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6172200" y="7105650"/>
+          <a:ext cx="5391150" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1565B7-7E28-4CDD-B308-FC0D62B13BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7105650"/>
+          <a:ext cx="5448300" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A660EDFE-4CCA-692E-7592-5404CFEC7420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="8639175"/>
+          <a:ext cx="819150" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFDBF09-A3B2-400F-91D1-69EED3B0F287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="2181225"/>
+          <a:ext cx="819150" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3013,7 +3459,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3392,7 +3838,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3573,7 +4019,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4128,7 +4574,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4243,7 +4689,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4358,7 +4804,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5068,8 +5514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="95" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -5088,66 +5534,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="34"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="66"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
       <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="66"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
       <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -5181,33 +5627,33 @@
       <c r="C4" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="47" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="47" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
       <c r="R4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="49"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1">
       <c r="A5" s="9">
@@ -5219,31 +5665,31 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="70">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="56">
         <v>45897</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="68"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
       <c r="R5" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="58"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1">
       <c r="A6" s="40">
@@ -5255,127 +5701,127 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="54" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="70">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="56">
         <v>45897</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="68"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
       <c r="R6" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="70">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="56">
         <v>45897</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="68"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
       <c r="R7" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="70">
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="56">
         <v>45897</v>
       </c>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="68"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="59" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="70">
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="56">
         <v>45897</v>
       </c>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="68"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1">
       <c r="A10" s="9">
@@ -5387,31 +5833,31 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="70">
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="56">
         <v>45897</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="68"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1">
       <c r="A11" s="9">
@@ -5423,31 +5869,31 @@
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="59" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="70">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="56">
         <v>45897</v>
       </c>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="68"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1">
       <c r="A12" s="9">
@@ -5459,31 +5905,31 @@
       <c r="C12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="59" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="70">
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="56">
         <v>45897</v>
       </c>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="68"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
       <c r="R12" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1">
       <c r="A13" s="40">
@@ -5495,95 +5941,95 @@
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="59" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="70">
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="56">
         <v>45897</v>
       </c>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="68"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
       <c r="R13" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="59" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="70">
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="56">
         <v>45897</v>
       </c>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="68"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
       <c r="R14" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="59" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="70">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="56">
         <v>45897</v>
       </c>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="68"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1">
       <c r="A16" s="9">
@@ -5595,31 +6041,31 @@
       <c r="C16" s="33">
         <v>12</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="59" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="70">
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="56">
         <v>45897</v>
       </c>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="68"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1">
       <c r="A17" s="40">
@@ -5631,95 +6077,95 @@
       <c r="C17" s="33">
         <v>13</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="54" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="70">
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="56">
         <v>45897</v>
       </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="68"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
       <c r="R17" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
     </row>
     <row r="18" spans="1:20" ht="71.25" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="33">
         <v>14</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="54" t="s">
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="70">
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="56">
         <v>45897</v>
       </c>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="68"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:20" ht="72.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="33">
         <v>15</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="54" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="70">
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="56">
         <v>45897</v>
       </c>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="68"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1">
       <c r="A20" s="40">
@@ -5731,95 +6177,95 @@
       <c r="C20" s="36">
         <v>16</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="54" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="70">
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="56">
         <v>45897</v>
       </c>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="68"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
       <c r="R20" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="10">
         <v>17</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="54" t="s">
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="70">
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="56">
         <v>45897</v>
       </c>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="68"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
       <c r="R21" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
     </row>
     <row r="22" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="33">
         <v>18</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="54" t="s">
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="70">
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="56">
         <v>45897</v>
       </c>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="68"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
     </row>
     <row r="23" spans="1:20" ht="33" customHeight="1">
       <c r="A23" s="40">
@@ -5838,56 +6284,56 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="70">
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="56">
         <v>45897</v>
       </c>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="68"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
     </row>
     <row r="24" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="33">
         <v>20</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="54" t="s">
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="70">
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="56">
         <v>45897</v>
       </c>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="68"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
     </row>
     <row r="25" spans="1:20" ht="30" customHeight="1">
       <c r="A25" s="38">
@@ -5899,31 +6345,31 @@
       <c r="C25" s="33">
         <v>21</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="54" t="s">
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="70">
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="56">
         <v>45897</v>
       </c>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="68"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
       <c r="R25" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:20" ht="51" customHeight="1">
       <c r="A26" s="38">
@@ -5935,31 +6381,31 @@
       <c r="C26" s="33">
         <v>22</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="54" t="s">
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="70">
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="56">
         <v>45897</v>
       </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="68"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
     </row>
     <row r="27" spans="1:20" ht="39.75" customHeight="1">
       <c r="A27" s="38">
@@ -5971,31 +6417,31 @@
       <c r="C27" s="33">
         <v>23</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="54" t="s">
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="70">
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="56">
         <v>45897</v>
       </c>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="68"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
       <c r="R27" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
     </row>
     <row r="28" spans="1:20" ht="30" customHeight="1">
       <c r="A28" s="40">
@@ -6007,95 +6453,95 @@
       <c r="C28" s="33">
         <v>24</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="54" t="s">
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="70">
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="56">
         <v>45898</v>
       </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="68"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
     </row>
     <row r="29" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="33">
         <v>25</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="54" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="70">
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="56">
         <v>45898</v>
       </c>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="68"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
       <c r="R29" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="33">
         <v>26</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="54" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="70">
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="56">
         <v>45898</v>
       </c>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="68"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
     </row>
     <row r="31" spans="1:20" ht="47.25" customHeight="1">
       <c r="A31" s="40">
@@ -6107,518 +6553,679 @@
       <c r="C31" s="33">
         <v>27</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="71" t="s">
         <v>381</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="54" t="s">
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="70">
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="56">
         <v>45898</v>
       </c>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="68"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
       <c r="R31" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
     </row>
     <row r="32" spans="1:20" ht="30" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="33">
         <v>28</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="54" t="s">
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="70">
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="56">
         <v>45898</v>
       </c>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="68"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="58"/>
       <c r="R32" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="74"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="74"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="12"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="74"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="74"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="55"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="74"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="55"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="74"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="12"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="74"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="55"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="12"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="74"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="12"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="74"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="55"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="12"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="74"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="12"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="74"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="55"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="12"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="79"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="49"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="12"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="79"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="49"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="79"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="49"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="79"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="49"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="79"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="49"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="69"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
     </row>
     <row r="49" spans="1:20" ht="30" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="79"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="49"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
     </row>
     <row r="50" spans="1:20" ht="30" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="79"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="49"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
     </row>
     <row r="51" spans="1:20" ht="30" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="79"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="49"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
     </row>
     <row r="52" spans="1:20" ht="30" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="79"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="49"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
     </row>
     <row r="53" spans="1:20" ht="11.25" customHeight="1">
       <c r="C53" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
     <mergeCell ref="O50:Q50"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="O52:Q52"/>
@@ -6643,6 +7250,15 @@
     <mergeCell ref="O35:Q35"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="O49:Q49"/>
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="O22:Q22"/>
@@ -6653,181 +7269,11 @@
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="S47:T47"/>
     <mergeCell ref="S48:T48"/>
     <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -6856,72 +7302,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="66"/>
+      <c r="P1" s="44"/>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="66"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="61" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="80">
+      <c r="O2" s="51">
         <v>44771</v>
       </c>
-      <c r="P2" s="81"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="76"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -6951,54 +7397,54 @@
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="47" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="47" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="49"/>
+      <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="58"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="10">
@@ -7007,1011 +7453,1094 @@
       <c r="B6" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="55" t="s">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="74"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="74"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="90"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="74"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="55" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
       <c r="Q14" s="11">
         <v>45607</v>
       </c>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="10">
         <v>2</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
       <c r="Q16" s="11">
         <v>44771</v>
       </c>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="55" t="s">
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
       <c r="Q20" s="11">
         <v>44771</v>
       </c>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="55" t="s">
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
       <c r="Q26" s="11">
         <v>44771</v>
       </c>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="10">
         <v>4</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="55" t="s">
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
       <c r="Q32" s="11">
         <v>44771</v>
       </c>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>282</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
       <c r="Q34" s="11"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="57"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="74"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="74"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="55" t="s">
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="56"/>
-      <c r="P38" s="57"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="74"/>
       <c r="Q38" s="11">
         <v>44771</v>
       </c>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="55" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="56"/>
-      <c r="P39" s="57"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="57"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="74"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="10">
         <v>6</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="74"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="57"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="74"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="74"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="57"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="74"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="69"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58" t="s">
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="55" t="s">
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="O45" s="56"/>
-      <c r="P45" s="57"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="74"/>
       <c r="Q45" s="11">
         <v>44771</v>
       </c>
-      <c r="R45" s="69"/>
-      <c r="S45" s="69"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="74"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:P17"/>
@@ -8036,126 +8565,43 @@
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -13928,14 +14374,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01349041-33B7-49BE-94D8-CEEA2434E15B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A20" s="71" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:K38"/>
+  </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13969,102 +14478,102 @@
       <c r="A1" s="33">
         <v>14</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="71" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="71.25" customHeight="1">
       <c r="A24" s="33">
         <v>15</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="54" t="s">
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:12" ht="15.75">
       <c r="A50" s="36">
         <v>16</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="54" t="s">
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="10">
         <v>17</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="54" t="s">
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="1:12" ht="37.5" customHeight="1">
       <c r="A52" s="33">
         <v>18</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="54" t="s">
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -14089,7 +14598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB2637-9C7A-4C76-A7D6-8B5C80CCFDDC}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
